--- a/SourceCode/2024/March2024/Santosh/Task 15/Input.xlsx
+++ b/SourceCode/2024/March2024/Santosh/Task 15/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanmaddu\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\2024\March2024\Santosh\Task 15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22199E9E-7BF4-48CA-B483-5C7D5D9F270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853CE4F1-E768-40AA-B37B-827ABE258D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="1404" yWindow="1836" windowWidth="15876" windowHeight="10404" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -429,7 +429,9 @@
   </x:sheetPr>
   <x:dimension ref="A1:D6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D2" sqref="D2 D2:D8"/>
+    </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>

--- a/SourceCode/2024/March2024/Santosh/Task 15/Input.xlsx
+++ b/SourceCode/2024/March2024/Santosh/Task 15/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanmaddu\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\2024\March2024\Santosh\Task 15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853CE4F1-E768-40AA-B37B-827ABE258D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8820FD4F-0D62-4E18-9648-4C9791AAA051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="1404" yWindow="1836" windowWidth="15876" windowHeight="10404" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -430,7 +430,7 @@
   <x:dimension ref="A1:D6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D2" sqref="D2 D2:D8"/>
+      <x:selection activeCell="D2" sqref="D2 D2:D6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
